--- a/state_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
+++ b/state_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U407"/>
+  <dimension ref="A1:U427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>0.01056</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0113717911967974</v>
+        <v>0.0113752943017531</v>
       </c>
       <c r="H4" t="n">
         <v>0.0427071710737583</v>
@@ -813,7 +813,7 @@
         <v>0.01056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0113717911967974</v>
+        <v>0.0113752943017531</v>
       </c>
       <c r="H5" t="n">
         <v>0.0427071710737583</v>
@@ -894,7 +894,7 @@
         <v>0.215</v>
       </c>
       <c r="G6" t="n">
-        <v>0.252279179641448</v>
+        <v>0.252290748558124</v>
       </c>
       <c r="H6" t="n">
         <v>0.61</v>
@@ -975,7 +975,7 @@
         <v>0.215</v>
       </c>
       <c r="G7" t="n">
-        <v>0.252279179641448</v>
+        <v>0.252290748558124</v>
       </c>
       <c r="H7" t="n">
         <v>0.61</v>
@@ -1066,7 +1066,7 @@
         <v>0.1465</v>
       </c>
       <c r="M8" t="n">
-        <v>0.44128</v>
+        <v>0.44162</v>
       </c>
       <c r="N8" t="n">
         <v>0.53298</v>
@@ -1143,7 +1143,7 @@
         <v>0.1465</v>
       </c>
       <c r="M9" t="n">
-        <v>0.44128</v>
+        <v>0.44162</v>
       </c>
       <c r="N9" t="n">
         <v>0.53298</v>
@@ -1206,7 +1206,7 @@
         <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0699047619114954</v>
+        <v>0.0699050698486602</v>
       </c>
       <c r="H10" t="n">
         <v>0.57</v>
@@ -1283,7 +1283,7 @@
         <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0699047619114954</v>
+        <v>0.0699050698486602</v>
       </c>
       <c r="H11" t="n">
         <v>0.57</v>
@@ -1364,7 +1364,7 @@
         <v>0.008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0083372474193861</v>
+        <v>0.0083380901711703</v>
       </c>
       <c r="H12" t="n">
         <v>0.03</v>
@@ -1445,7 +1445,7 @@
         <v>0.008</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0083372474193861</v>
+        <v>0.0083380901711703</v>
       </c>
       <c r="H13" t="n">
         <v>0.03</v>
@@ -1526,7 +1526,7 @@
         <v>0.01105</v>
       </c>
       <c r="G14" t="n">
-        <v>0.011376120416638</v>
+        <v>0.0113800173316799</v>
       </c>
       <c r="H14" t="n">
         <v>0.0427071710737583</v>
@@ -1607,7 +1607,7 @@
         <v>0.01105</v>
       </c>
       <c r="G15" t="n">
-        <v>0.011376120416638</v>
+        <v>0.0113800173316799</v>
       </c>
       <c r="H15" t="n">
         <v>0.0427071710737583</v>
@@ -1688,7 +1688,7 @@
         <v>0.21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.246884595010637</v>
+        <v>0.246895007035645</v>
       </c>
       <c r="H16" t="n">
         <v>0.61</v>
@@ -1769,7 +1769,7 @@
         <v>0.21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.246884595010637</v>
+        <v>0.246895007035645</v>
       </c>
       <c r="H17" t="n">
         <v>0.61</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.226</v>
+        <v>0.22575</v>
       </c>
       <c r="G18" t="n">
-        <v>0.268316666666667</v>
+        <v>0.268291666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0.642</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.226</v>
+        <v>0.22575</v>
       </c>
       <c r="G19" t="n">
-        <v>0.268316666666667</v>
+        <v>0.268291666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0.642</v>
@@ -2000,7 +2000,7 @@
         <v>0.03</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0576666666745224</v>
+        <v>0.057667025934548</v>
       </c>
       <c r="H20" t="n">
         <v>0.25</v>
@@ -2077,7 +2077,7 @@
         <v>0.03</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0576666666745224</v>
+        <v>0.057667025934548</v>
       </c>
       <c r="H21" t="n">
         <v>0.25</v>
@@ -2158,7 +2158,7 @@
         <v>0.008</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008279911123502799</v>
+        <v>0.0082807829356934</v>
       </c>
       <c r="H22" t="n">
         <v>0.03</v>
@@ -2239,7 +2239,7 @@
         <v>0.008</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008279911123502799</v>
+        <v>0.0082807829356934</v>
       </c>
       <c r="H23" t="n">
         <v>0.03</v>
@@ -2320,7 +2320,7 @@
         <v>0.01038</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0113181987874438</v>
+        <v>0.0113222660282656</v>
       </c>
       <c r="H24" t="n">
         <v>0.0427071710737583</v>
@@ -2401,7 +2401,7 @@
         <v>0.01038</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0113181987874438</v>
+        <v>0.0113222660282656</v>
       </c>
       <c r="H25" t="n">
         <v>0.0427071710737583</v>
@@ -2482,7 +2482,7 @@
         <v>0.22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.241604753459279</v>
+        <v>0.241615524519633</v>
       </c>
       <c r="H26" t="n">
         <v>0.61</v>
@@ -2563,7 +2563,7 @@
         <v>0.22</v>
       </c>
       <c r="G27" t="n">
-        <v>0.241604753459279</v>
+        <v>0.241615524519633</v>
       </c>
       <c r="H27" t="n">
         <v>0.61</v>
@@ -2654,10 +2654,10 @@
         <v>0.141</v>
       </c>
       <c r="M28" t="n">
-        <v>0.44256</v>
+        <v>0.44274</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.50953</v>
       </c>
       <c r="O28" t="n">
         <v>1789705</v>
@@ -2731,10 +2731,10 @@
         <v>0.141</v>
       </c>
       <c r="M29" t="n">
-        <v>0.44256</v>
+        <v>0.44274</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.50953</v>
       </c>
       <c r="O29" t="n">
         <v>1789705</v>
@@ -2798,7 +2798,7 @@
         <v>0.008</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0091470508064851</v>
+        <v>0.0091479537548253</v>
       </c>
       <c r="H30" t="n">
         <v>0.03</v>
@@ -2879,7 +2879,7 @@
         <v>0.008</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0091470508064851</v>
+        <v>0.0091479537548253</v>
       </c>
       <c r="H31" t="n">
         <v>0.03</v>
@@ -2960,7 +2960,7 @@
         <v>0.01067</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0119142734613984</v>
+        <v>0.0119176445081137</v>
       </c>
       <c r="H32" t="n">
         <v>0.0427071710737583</v>
@@ -3041,7 +3041,7 @@
         <v>0.01067</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0119142734613984</v>
+        <v>0.0119176445081137</v>
       </c>
       <c r="H33" t="n">
         <v>0.0427071710737583</v>
@@ -3277,10 +3277,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.2645</v>
+        <v>0.26425</v>
       </c>
       <c r="G36" t="n">
-        <v>0.28575</v>
+        <v>0.285741071428571</v>
       </c>
       <c r="H36" t="n">
         <v>0.642</v>
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.2645</v>
+        <v>0.26425</v>
       </c>
       <c r="G37" t="n">
-        <v>0.28575</v>
+        <v>0.285741071428571</v>
       </c>
       <c r="H37" t="n">
         <v>0.642</v>
@@ -3438,7 +3438,7 @@
         <v>0.008</v>
       </c>
       <c r="G38" t="n">
-        <v>0.008586088093875699</v>
+        <v>0.0085870074594585</v>
       </c>
       <c r="H38" t="n">
         <v>0.023</v>
@@ -3519,7 +3519,7 @@
         <v>0.008</v>
       </c>
       <c r="G39" t="n">
-        <v>0.008586088093875699</v>
+        <v>0.0085870074594585</v>
       </c>
       <c r="H39" t="n">
         <v>0.023</v>
@@ -3600,7 +3600,7 @@
         <v>0.01018</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0153193769083676</v>
+        <v>0.0153228092468414</v>
       </c>
       <c r="H40" t="n">
         <v>0.101256468226114</v>
@@ -3681,7 +3681,7 @@
         <v>0.01018</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0153193769083676</v>
+        <v>0.0153228092468414</v>
       </c>
       <c r="H41" t="n">
         <v>0.101256468226114</v>
@@ -3762,7 +3762,7 @@
         <v>0.22</v>
       </c>
       <c r="G42" t="n">
-        <v>0.24072887416824</v>
+        <v>0.24075767963765</v>
       </c>
       <c r="H42" t="n">
         <v>0.61</v>
@@ -3843,7 +3843,7 @@
         <v>0.22</v>
       </c>
       <c r="G43" t="n">
-        <v>0.24072887416824</v>
+        <v>0.24075767963765</v>
       </c>
       <c r="H43" t="n">
         <v>0.61</v>
@@ -3920,7 +3920,7 @@
         <v>0.241</v>
       </c>
       <c r="G44" t="n">
-        <v>0.265618181818182</v>
+        <v>0.265609090909091</v>
       </c>
       <c r="H44" t="n">
         <v>0.642</v>
@@ -3997,7 +3997,7 @@
         <v>0.241</v>
       </c>
       <c r="G45" t="n">
-        <v>0.265618181818182</v>
+        <v>0.265609090909091</v>
       </c>
       <c r="H45" t="n">
         <v>0.642</v>
@@ -4078,7 +4078,7 @@
         <v>0.008</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0088932378733919</v>
+        <v>0.0088941742642633</v>
       </c>
       <c r="H46" t="n">
         <v>0.023</v>
@@ -4159,7 +4159,7 @@
         <v>0.008</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0088932378733919</v>
+        <v>0.0088941742642633</v>
       </c>
       <c r="H47" t="n">
         <v>0.023</v>
@@ -4240,7 +4240,7 @@
         <v>0.01162</v>
       </c>
       <c r="G48" t="n">
-        <v>0.018183663073259</v>
+        <v>0.0181868496858472</v>
       </c>
       <c r="H48" t="n">
         <v>0.101256468226114</v>
@@ -4321,7 +4321,7 @@
         <v>0.01162</v>
       </c>
       <c r="G49" t="n">
-        <v>0.018183663073259</v>
+        <v>0.0181868496858472</v>
       </c>
       <c r="H49" t="n">
         <v>0.101256468226114</v>
@@ -4402,7 +4402,7 @@
         <v>0.17</v>
       </c>
       <c r="G50" t="n">
-        <v>0.212145627731006</v>
+        <v>0.212191460485879</v>
       </c>
       <c r="H50" t="n">
         <v>0.54</v>
@@ -4483,7 +4483,7 @@
         <v>0.17</v>
       </c>
       <c r="G51" t="n">
-        <v>0.212145627731006</v>
+        <v>0.212191460485879</v>
       </c>
       <c r="H51" t="n">
         <v>0.54</v>
@@ -4560,13 +4560,13 @@
         <v>0.205</v>
       </c>
       <c r="G52" t="n">
-        <v>0.238481481481481</v>
+        <v>0.238490740740741</v>
       </c>
       <c r="H52" t="n">
         <v>0.57</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5008</v>
+        <v>0.5004</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -4637,13 +4637,13 @@
         <v>0.205</v>
       </c>
       <c r="G53" t="n">
-        <v>0.238481481481481</v>
+        <v>0.238490740740741</v>
       </c>
       <c r="H53" t="n">
         <v>0.57</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5008</v>
+        <v>0.5004</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4961,7 +4961,7 @@
         <v>0.0185</v>
       </c>
       <c r="G57" t="n">
-        <v>0.022621283724988</v>
+        <v>0.0226236508297091</v>
       </c>
       <c r="H57" t="n">
         <v>0.103302916546841</v>
@@ -5042,7 +5042,7 @@
         <v>0.0185</v>
       </c>
       <c r="G58" t="n">
-        <v>0.022621283724988</v>
+        <v>0.0226236508297091</v>
       </c>
       <c r="H58" t="n">
         <v>0.103302916546841</v>
@@ -5123,7 +5123,7 @@
         <v>0.17</v>
       </c>
       <c r="G59" t="n">
-        <v>0.209553035138413</v>
+        <v>0.209598867893287</v>
       </c>
       <c r="H59" t="n">
         <v>0.54</v>
@@ -5204,7 +5204,7 @@
         <v>0.17</v>
       </c>
       <c r="G60" t="n">
-        <v>0.209553035138413</v>
+        <v>0.209598867893287</v>
       </c>
       <c r="H60" t="n">
         <v>0.54</v>
@@ -5281,7 +5281,7 @@
         <v>0.215</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2395</v>
+        <v>0.239509259259259</v>
       </c>
       <c r="H61" t="n">
         <v>0.57</v>
@@ -5358,7 +5358,7 @@
         <v>0.215</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2395</v>
+        <v>0.239509259259259</v>
       </c>
       <c r="H62" t="n">
         <v>0.57</v>
@@ -5520,7 +5520,7 @@
         <v>0.008</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0101760939732325</v>
+        <v>0.0101782981280366</v>
       </c>
       <c r="H64" t="n">
         <v>0.038</v>
@@ -5601,7 +5601,7 @@
         <v>0.008</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0101760939732325</v>
+        <v>0.0101782981280366</v>
       </c>
       <c r="H65" t="n">
         <v>0.038</v>
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.01947</v>
+        <v>0.01871</v>
       </c>
       <c r="G66" t="n">
-        <v>0.024061567643489</v>
+        <v>0.023748693769987</v>
       </c>
       <c r="H66" t="n">
         <v>0.103302916546841</v>
@@ -5693,7 +5693,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.02595</v>
+        <v>0.02231</v>
       </c>
       <c r="M66" t="n">
         <v>0.0379</v>
@@ -5760,10 +5760,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.01947</v>
+        <v>0.01871</v>
       </c>
       <c r="G67" t="n">
-        <v>0.024061567643489</v>
+        <v>0.023748693769987</v>
       </c>
       <c r="H67" t="n">
         <v>0.103302916546841</v>
@@ -5774,7 +5774,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.02595</v>
+        <v>0.02231</v>
       </c>
       <c r="M67" t="n">
         <v>0.0379</v>
@@ -5844,7 +5844,7 @@
         <v>0.17</v>
       </c>
       <c r="G68" t="n">
-        <v>0.196518016850824</v>
+        <v>0.196591513241495</v>
       </c>
       <c r="H68" t="n">
         <v>0.54</v>
@@ -5925,7 +5925,7 @@
         <v>0.17</v>
       </c>
       <c r="G69" t="n">
-        <v>0.196518016850824</v>
+        <v>0.196591513241495</v>
       </c>
       <c r="H69" t="n">
         <v>0.54</v>
@@ -6002,7 +6002,7 @@
         <v>0.195</v>
       </c>
       <c r="G70" t="n">
-        <v>0.226095731826256</v>
+        <v>0.226113498662145</v>
       </c>
       <c r="H70" t="n">
         <v>0.57</v>
@@ -6079,7 +6079,7 @@
         <v>0.195</v>
       </c>
       <c r="G71" t="n">
-        <v>0.226095731826256</v>
+        <v>0.226113498662145</v>
       </c>
       <c r="H71" t="n">
         <v>0.57</v>
@@ -6241,7 +6241,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0121910740828101</v>
+        <v>0.0121932381620723</v>
       </c>
       <c r="H73" t="n">
         <v>0.05</v>
@@ -6322,7 +6322,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0121910740828101</v>
+        <v>0.0121932381620723</v>
       </c>
       <c r="H74" t="n">
         <v>0.05</v>
@@ -6817,10 +6817,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01871</v>
+        <v>0.01829</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0233149269839899</v>
+        <v>0.0230077417263697</v>
       </c>
       <c r="H80" t="n">
         <v>0.103302916546841</v>
@@ -6831,7 +6831,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.02756</v>
+        <v>0.0263</v>
       </c>
       <c r="M80" t="n">
         <v>0.03758</v>
@@ -6898,10 +6898,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01871</v>
+        <v>0.01829</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0233149269839899</v>
+        <v>0.0230077417263697</v>
       </c>
       <c r="H81" t="n">
         <v>0.103302916546841</v>
@@ -6912,7 +6912,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.02756</v>
+        <v>0.0263</v>
       </c>
       <c r="M81" t="n">
         <v>0.03758</v>
@@ -6982,7 +6982,7 @@
         <v>0.17</v>
       </c>
       <c r="G82" t="n">
-        <v>0.201602229129302</v>
+        <v>0.201690675705349</v>
       </c>
       <c r="H82" t="n">
         <v>0.47</v>
@@ -7063,7 +7063,7 @@
         <v>0.17</v>
       </c>
       <c r="G83" t="n">
-        <v>0.201602229129302</v>
+        <v>0.201690675705349</v>
       </c>
       <c r="H83" t="n">
         <v>0.47</v>
@@ -7140,7 +7140,7 @@
         <v>0.2</v>
       </c>
       <c r="G84" t="n">
-        <v>0.228075809429415</v>
+        <v>0.228093253231924</v>
       </c>
       <c r="H84" t="n">
         <v>0.51</v>
@@ -7217,7 +7217,7 @@
         <v>0.2</v>
       </c>
       <c r="G85" t="n">
-        <v>0.228075809429415</v>
+        <v>0.228093253231924</v>
       </c>
       <c r="H85" t="n">
         <v>0.51</v>
@@ -7379,7 +7379,7 @@
         <v>0.01</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0140456195373556</v>
+        <v>0.0140477836166178</v>
       </c>
       <c r="H87" t="n">
         <v>0.05</v>
@@ -7460,7 +7460,7 @@
         <v>0.01</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0140456195373556</v>
+        <v>0.0140477836166178</v>
       </c>
       <c r="H88" t="n">
         <v>0.05</v>
@@ -7955,10 +7955,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.0155</v>
+        <v>0.01517</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0206056420318759</v>
+        <v>0.0202984567742557</v>
       </c>
       <c r="H94" t="n">
         <v>0.103302916546841</v>
@@ -7969,7 +7969,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.02756</v>
+        <v>0.02698</v>
       </c>
       <c r="M94" t="n">
         <v>0.03065</v>
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.0155</v>
+        <v>0.01517</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0206056420318759</v>
+        <v>0.0202984567742557</v>
       </c>
       <c r="H95" t="n">
         <v>0.103302916546841</v>
@@ -8050,7 +8050,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.02756</v>
+        <v>0.02698</v>
       </c>
       <c r="M95" t="n">
         <v>0.03065</v>
@@ -8120,7 +8120,7 @@
         <v>0.18</v>
       </c>
       <c r="G96" t="n">
-        <v>0.215252293872364</v>
+        <v>0.215329179081447</v>
       </c>
       <c r="H96" t="n">
         <v>0.51</v>
@@ -8201,7 +8201,7 @@
         <v>0.18</v>
       </c>
       <c r="G97" t="n">
-        <v>0.215252293872364</v>
+        <v>0.215329179081447</v>
       </c>
       <c r="H97" t="n">
         <v>0.51</v>
@@ -8278,7 +8278,7 @@
         <v>0.206</v>
       </c>
       <c r="G98" t="n">
-        <v>0.238584900338506</v>
+        <v>0.238602344141015</v>
       </c>
       <c r="H98" t="n">
         <v>0.529</v>
@@ -8355,7 +8355,7 @@
         <v>0.206</v>
       </c>
       <c r="G99" t="n">
-        <v>0.238584900338506</v>
+        <v>0.238602344141015</v>
       </c>
       <c r="H99" t="n">
         <v>0.529</v>
@@ -8517,7 +8517,7 @@
         <v>0.0135</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0165649828621214</v>
+        <v>0.0165671870169255</v>
       </c>
       <c r="H101" t="n">
         <v>0.05</v>
@@ -8598,7 +8598,7 @@
         <v>0.0135</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0165649828621214</v>
+        <v>0.0165671870169255</v>
       </c>
       <c r="H102" t="n">
         <v>0.05</v>
@@ -9096,7 +9096,7 @@
         <v>0.01149</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0165462920137086</v>
+        <v>0.0162404742208809</v>
       </c>
       <c r="H108" t="n">
         <v>0.103302916546841</v>
@@ -9107,10 +9107,10 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.02577</v>
+        <v>0.02116</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02956</v>
+        <v>0.02828</v>
       </c>
       <c r="N108" t="n">
         <v>0.03766</v>
@@ -9177,7 +9177,7 @@
         <v>0.01149</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0165462920137086</v>
+        <v>0.0162404742208809</v>
       </c>
       <c r="H109" t="n">
         <v>0.103302916546841</v>
@@ -9188,10 +9188,10 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.02577</v>
+        <v>0.02116</v>
       </c>
       <c r="M109" t="n">
-        <v>0.02956</v>
+        <v>0.02828</v>
       </c>
       <c r="N109" t="n">
         <v>0.03766</v>
@@ -9258,7 +9258,7 @@
         <v>0.205</v>
       </c>
       <c r="G110" t="n">
-        <v>0.218994245515806</v>
+        <v>0.219067361537508</v>
       </c>
       <c r="H110" t="n">
         <v>0.51</v>
@@ -9339,7 +9339,7 @@
         <v>0.205</v>
       </c>
       <c r="G111" t="n">
-        <v>0.218994245515806</v>
+        <v>0.219067361537508</v>
       </c>
       <c r="H111" t="n">
         <v>0.51</v>
@@ -9416,7 +9416,7 @@
         <v>0.2305</v>
       </c>
       <c r="G112" t="n">
-        <v>0.238400925264429</v>
+        <v>0.238433752122045</v>
       </c>
       <c r="H112" t="n">
         <v>0.529</v>
@@ -9493,7 +9493,7 @@
         <v>0.2305</v>
       </c>
       <c r="G113" t="n">
-        <v>0.238400925264429</v>
+        <v>0.238433752122045</v>
       </c>
       <c r="H113" t="n">
         <v>0.529</v>
@@ -9655,7 +9655,7 @@
         <v>0.01525</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0174776059226796</v>
+        <v>0.0174809035008034</v>
       </c>
       <c r="H115" t="n">
         <v>0.05</v>
@@ -9736,7 +9736,7 @@
         <v>0.01525</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0174776059226796</v>
+        <v>0.0174809035008034</v>
       </c>
       <c r="H116" t="n">
         <v>0.05</v>
@@ -10234,7 +10234,7 @@
         <v>0.00788</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0109819939990175</v>
+        <v>0.0106688754106666</v>
       </c>
       <c r="H122" t="n">
         <v>0.0405025872904458</v>
@@ -10248,10 +10248,10 @@
         <v>0.01139</v>
       </c>
       <c r="M122" t="n">
-        <v>0.02344</v>
+        <v>0.01921</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02957</v>
+        <v>0.02833</v>
       </c>
       <c r="O122" t="n">
         <v>1789705</v>
@@ -10315,7 +10315,7 @@
         <v>0.00788</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0109819939990175</v>
+        <v>0.0106688754106666</v>
       </c>
       <c r="H123" t="n">
         <v>0.0405025872904458</v>
@@ -10329,10 +10329,10 @@
         <v>0.01139</v>
       </c>
       <c r="M123" t="n">
-        <v>0.02344</v>
+        <v>0.01921</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02957</v>
+        <v>0.02833</v>
       </c>
       <c r="O123" t="n">
         <v>1789705</v>
@@ -10396,7 +10396,7 @@
         <v>0.215</v>
       </c>
       <c r="G124" t="n">
-        <v>0.233955562651029</v>
+        <v>0.234031490827412</v>
       </c>
       <c r="H124" t="n">
         <v>0.52</v>
@@ -10477,7 +10477,7 @@
         <v>0.215</v>
       </c>
       <c r="G125" t="n">
-        <v>0.233955562651029</v>
+        <v>0.234031490827412</v>
       </c>
       <c r="H125" t="n">
         <v>0.52</v>
@@ -10551,10 +10551,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.232</v>
+        <v>0.23175</v>
       </c>
       <c r="G126" t="n">
-        <v>0.247262499313061</v>
+        <v>0.247277357972893</v>
       </c>
       <c r="H126" t="n">
         <v>0.54</v>
@@ -10568,7 +10568,7 @@
         <v>0.151</v>
       </c>
       <c r="M126" t="n">
-        <v>0.4453</v>
+        <v>0.44547</v>
       </c>
       <c r="N126" t="n">
         <v>0.45806</v>
@@ -10628,10 +10628,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.232</v>
+        <v>0.23175</v>
       </c>
       <c r="G127" t="n">
-        <v>0.247262499313061</v>
+        <v>0.247277357972893</v>
       </c>
       <c r="H127" t="n">
         <v>0.54</v>
@@ -10645,7 +10645,7 @@
         <v>0.151</v>
       </c>
       <c r="M127" t="n">
-        <v>0.4453</v>
+        <v>0.44547</v>
       </c>
       <c r="N127" t="n">
         <v>0.45806</v>
@@ -10793,7 +10793,7 @@
         <v>0.01425</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0168786308808357</v>
+        <v>0.0168805713340817</v>
       </c>
       <c r="H129" t="n">
         <v>0.05</v>
@@ -10874,7 +10874,7 @@
         <v>0.01425</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0168786308808357</v>
+        <v>0.0168805713340817</v>
       </c>
       <c r="H130" t="n">
         <v>0.05</v>
@@ -11372,7 +11372,7 @@
         <v>0.00489</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0088445434389993</v>
+        <v>0.0088594647970384</v>
       </c>
       <c r="H136" t="n">
         <v>0.0405025872904458</v>
@@ -11453,7 +11453,7 @@
         <v>0.00489</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0088445434389993</v>
+        <v>0.0088594647970384</v>
       </c>
       <c r="H137" t="n">
         <v>0.0405025872904458</v>
@@ -11534,7 +11534,7 @@
         <v>0.25</v>
       </c>
       <c r="G138" t="n">
-        <v>0.26919067211963</v>
+        <v>0.269245214982714</v>
       </c>
       <c r="H138" t="n">
         <v>0.52</v>
@@ -11615,7 +11615,7 @@
         <v>0.25</v>
       </c>
       <c r="G139" t="n">
-        <v>0.26919067211963</v>
+        <v>0.269245214982714</v>
       </c>
       <c r="H139" t="n">
         <v>0.52</v>
@@ -11692,7 +11692,7 @@
         <v>0.2565</v>
       </c>
       <c r="G140" t="n">
-        <v>0.271305193438173</v>
+        <v>0.271281364571012</v>
       </c>
       <c r="H140" t="n">
         <v>0.698</v>
@@ -11769,7 +11769,7 @@
         <v>0.2565</v>
       </c>
       <c r="G141" t="n">
-        <v>0.271305193438173</v>
+        <v>0.271281364571012</v>
       </c>
       <c r="H141" t="n">
         <v>0.698</v>
@@ -11931,7 +11931,7 @@
         <v>0.013</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0143353830466387</v>
+        <v>0.0143372882189165</v>
       </c>
       <c r="H143" t="n">
         <v>0.042</v>
@@ -12012,7 +12012,7 @@
         <v>0.013</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0143353830466387</v>
+        <v>0.0143372882189165</v>
       </c>
       <c r="H144" t="n">
         <v>0.042</v>
@@ -12510,7 +12510,7 @@
         <v>0.00393</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0069549316780163</v>
+        <v>0.0069753092401008</v>
       </c>
       <c r="H150" t="n">
         <v>0.0405025872904458</v>
@@ -12521,7 +12521,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00414</v>
+        <v>0.00423</v>
       </c>
       <c r="M150" t="n">
         <v>0.01269</v>
@@ -12591,7 +12591,7 @@
         <v>0.00393</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0069549316780163</v>
+        <v>0.0069753092401008</v>
       </c>
       <c r="H151" t="n">
         <v>0.0405025872904458</v>
@@ -12602,7 +12602,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>0.00414</v>
+        <v>0.00423</v>
       </c>
       <c r="M151" t="n">
         <v>0.01269</v>
@@ -12672,7 +12672,7 @@
         <v>0.247</v>
       </c>
       <c r="G152" t="n">
-        <v>0.271206404256007</v>
+        <v>0.271249700707464</v>
       </c>
       <c r="H152" t="n">
         <v>0.52</v>
@@ -12753,7 +12753,7 @@
         <v>0.247</v>
       </c>
       <c r="G153" t="n">
-        <v>0.271206404256007</v>
+        <v>0.271249700707464</v>
       </c>
       <c r="H153" t="n">
         <v>0.52</v>
@@ -12830,7 +12830,7 @@
         <v>0.255</v>
       </c>
       <c r="G154" t="n">
-        <v>0.269917826284752</v>
+        <v>0.269867157942448</v>
       </c>
       <c r="H154" t="n">
         <v>0.73</v>
@@ -12841,7 +12841,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>0.101</v>
+        <v>0.1005</v>
       </c>
       <c r="M154" t="n">
         <v>0.45075</v>
@@ -12907,7 +12907,7 @@
         <v>0.255</v>
       </c>
       <c r="G155" t="n">
-        <v>0.269917826284752</v>
+        <v>0.269867157942448</v>
       </c>
       <c r="H155" t="n">
         <v>0.73</v>
@@ -12918,7 +12918,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>0.101</v>
+        <v>0.1005</v>
       </c>
       <c r="M155" t="n">
         <v>0.45075</v>
@@ -13223,7 +13223,7 @@
         <v>0.012</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0130509922609404</v>
+        <v>0.0130538384945135</v>
       </c>
       <c r="H159" t="n">
         <v>0.042</v>
@@ -13304,7 +13304,7 @@
         <v>0.012</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0130509922609404</v>
+        <v>0.0130538384945135</v>
       </c>
       <c r="H160" t="n">
         <v>0.042</v>
@@ -13802,7 +13802,7 @@
         <v>0.00322</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0043544175409612</v>
+        <v>0.0043752193661037</v>
       </c>
       <c r="H166" t="n">
         <v>0.0172171527578069</v>
@@ -13813,13 +13813,13 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.00414</v>
+        <v>0.00423</v>
       </c>
       <c r="M166" t="n">
         <v>0.007</v>
       </c>
       <c r="N166" t="n">
-        <v>0.01178</v>
+        <v>0.01196</v>
       </c>
       <c r="O166" t="n">
         <v>1789705</v>
@@ -13883,7 +13883,7 @@
         <v>0.00322</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0043544175409612</v>
+        <v>0.0043752193661037</v>
       </c>
       <c r="H167" t="n">
         <v>0.0172171527578069</v>
@@ -13894,13 +13894,13 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.00414</v>
+        <v>0.00423</v>
       </c>
       <c r="M167" t="n">
         <v>0.007</v>
       </c>
       <c r="N167" t="n">
-        <v>0.01178</v>
+        <v>0.01196</v>
       </c>
       <c r="O167" t="n">
         <v>1789705</v>
@@ -13964,7 +13964,7 @@
         <v>0.243</v>
       </c>
       <c r="G168" t="n">
-        <v>0.260498949591877</v>
+        <v>0.260558948063325</v>
       </c>
       <c r="H168" t="n">
         <v>0.5570000000000001</v>
@@ -14045,7 +14045,7 @@
         <v>0.243</v>
       </c>
       <c r="G169" t="n">
-        <v>0.260498949591877</v>
+        <v>0.260558948063325</v>
       </c>
       <c r="H169" t="n">
         <v>0.5570000000000001</v>
@@ -14119,16 +14119,16 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.25</v>
+        <v>0.2495</v>
       </c>
       <c r="G170" t="n">
-        <v>0.260663280830207</v>
+        <v>0.260612612487902</v>
       </c>
       <c r="H170" t="n">
         <v>0.73</v>
       </c>
       <c r="I170" t="n">
-        <v>0.66425</v>
+        <v>0.66437</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -14139,7 +14139,7 @@
         <v>0.45075</v>
       </c>
       <c r="N170" t="n">
-        <v>0.5423</v>
+        <v>0.54235</v>
       </c>
       <c r="O170" t="n">
         <v>1789705</v>
@@ -14196,16 +14196,16 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.25</v>
+        <v>0.2495</v>
       </c>
       <c r="G171" t="n">
-        <v>0.260663280830207</v>
+        <v>0.260612612487902</v>
       </c>
       <c r="H171" t="n">
         <v>0.73</v>
       </c>
       <c r="I171" t="n">
-        <v>0.66425</v>
+        <v>0.66437</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -14216,7 +14216,7 @@
         <v>0.45075</v>
       </c>
       <c r="N171" t="n">
-        <v>0.5423</v>
+        <v>0.54235</v>
       </c>
       <c r="O171" t="n">
         <v>1789705</v>
@@ -14434,7 +14434,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="G174" t="n">
-        <v>1.11955097066235</v>
+        <v>1.11943369447158</v>
       </c>
       <c r="H174" t="n">
         <v>3.32</v>
@@ -14515,7 +14515,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0102246416552933</v>
+        <v>0.0102273880210218</v>
       </c>
       <c r="H175" t="n">
         <v>0.0215</v>
@@ -14596,7 +14596,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0102246416552933</v>
+        <v>0.0102273880210218</v>
       </c>
       <c r="H176" t="n">
         <v>0.0215</v>
@@ -15094,7 +15094,7 @@
         <v>0.00411</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0078776739007106</v>
+        <v>0.0078930125761878</v>
       </c>
       <c r="H182" t="n">
         <v>0.187051602563337</v>
@@ -15175,7 +15175,7 @@
         <v>0.00411</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0078776739007106</v>
+        <v>0.0078930125761878</v>
       </c>
       <c r="H183" t="n">
         <v>0.187051602563337</v>
@@ -15256,7 +15256,7 @@
         <v>0.243</v>
       </c>
       <c r="G184" t="n">
-        <v>0.268115086110868</v>
+        <v>0.268155867646505</v>
       </c>
       <c r="H184" t="n">
         <v>0.5570000000000001</v>
@@ -15337,7 +15337,7 @@
         <v>0.243</v>
       </c>
       <c r="G185" t="n">
-        <v>0.268115086110868</v>
+        <v>0.268155867646505</v>
       </c>
       <c r="H185" t="n">
         <v>0.5570000000000001</v>
@@ -15411,16 +15411,16 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.233</v>
+        <v>0.2325</v>
       </c>
       <c r="G186" t="n">
-        <v>0.267385964912281</v>
+        <v>0.267322807017544</v>
       </c>
       <c r="H186" t="n">
         <v>0.73</v>
       </c>
       <c r="I186" t="n">
-        <v>0.6507500000000001</v>
+        <v>0.6509200000000001</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -15488,16 +15488,16 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.233</v>
+        <v>0.2325</v>
       </c>
       <c r="G187" t="n">
-        <v>0.267385964912281</v>
+        <v>0.267322807017544</v>
       </c>
       <c r="H187" t="n">
         <v>0.73</v>
       </c>
       <c r="I187" t="n">
-        <v>0.6507500000000001</v>
+        <v>0.6509200000000001</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -15880,7 +15880,7 @@
         <v>0.85</v>
       </c>
       <c r="G192" t="n">
-        <v>1.13861604668759</v>
+        <v>1.13850098325513</v>
       </c>
       <c r="H192" t="n">
         <v>3.32</v>
@@ -15961,7 +15961,7 @@
         <v>0.008</v>
       </c>
       <c r="G193" t="n">
-        <v>0.009096813242315999</v>
+        <v>0.0091011132532392</v>
       </c>
       <c r="H193" t="n">
         <v>0.021</v>
@@ -16042,7 +16042,7 @@
         <v>0.008</v>
       </c>
       <c r="G194" t="n">
-        <v>0.009096813242315999</v>
+        <v>0.0091011132532392</v>
       </c>
       <c r="H194" t="n">
         <v>0.021</v>
@@ -16540,18 +16540,18 @@
         <v>0.00493</v>
       </c>
       <c r="G200" t="n">
-        <v>0.009038702827014499</v>
+        <v>0.0090500856413191</v>
       </c>
       <c r="H200" t="n">
         <v>0.187051602563337</v>
       </c>
       <c r="I200" t="n">
-        <v>0.01471</v>
+        <v>0.01483</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>0.00657</v>
+        <v>0.0066</v>
       </c>
       <c r="M200" t="n">
         <v>0.01002</v>
@@ -16621,18 +16621,18 @@
         <v>0.00493</v>
       </c>
       <c r="G201" t="n">
-        <v>0.009038702827014499</v>
+        <v>0.0090500856413191</v>
       </c>
       <c r="H201" t="n">
         <v>0.187051602563337</v>
       </c>
       <c r="I201" t="n">
-        <v>0.01471</v>
+        <v>0.01483</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>0.00657</v>
+        <v>0.0066</v>
       </c>
       <c r="M201" t="n">
         <v>0.01002</v>
@@ -16702,7 +16702,7 @@
         <v>0.243</v>
       </c>
       <c r="G202" t="n">
-        <v>0.260509331805324</v>
+        <v>0.26054807426418</v>
       </c>
       <c r="H202" t="n">
         <v>0.6889999999999999</v>
@@ -16783,7 +16783,7 @@
         <v>0.243</v>
       </c>
       <c r="G203" t="n">
-        <v>0.260509331805324</v>
+        <v>0.26054807426418</v>
       </c>
       <c r="H203" t="n">
         <v>0.6889999999999999</v>
@@ -16860,7 +16860,7 @@
         <v>0.206</v>
       </c>
       <c r="G204" t="n">
-        <v>0.264745762711864</v>
+        <v>0.264701694915254</v>
       </c>
       <c r="H204" t="n">
         <v>0.73</v>
@@ -16877,7 +16877,7 @@
         <v>0.44547</v>
       </c>
       <c r="N204" t="n">
-        <v>0.5627799999999999</v>
+        <v>0.5631699999999999</v>
       </c>
       <c r="O204" t="n">
         <v>1789705</v>
@@ -16937,7 +16937,7 @@
         <v>0.206</v>
       </c>
       <c r="G205" t="n">
-        <v>0.264745762711864</v>
+        <v>0.264701694915254</v>
       </c>
       <c r="H205" t="n">
         <v>0.73</v>
@@ -16954,7 +16954,7 @@
         <v>0.44547</v>
       </c>
       <c r="N205" t="n">
-        <v>0.5627799999999999</v>
+        <v>0.5631699999999999</v>
       </c>
       <c r="O205" t="n">
         <v>1789705</v>
@@ -17326,7 +17326,7 @@
         <v>0.82</v>
       </c>
       <c r="G210" t="n">
-        <v>1.07640103009066</v>
+        <v>1.07627657372494</v>
       </c>
       <c r="H210" t="n">
         <v>2.83</v>
@@ -17407,7 +17407,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0101469217136698</v>
+        <v>0.0101511404500918</v>
       </c>
       <c r="H211" t="n">
         <v>0.045</v>
@@ -17488,7 +17488,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0101469217136698</v>
+        <v>0.0101511404500918</v>
       </c>
       <c r="H212" t="n">
         <v>0.045</v>
@@ -17986,24 +17986,24 @@
         <v>0.00536</v>
       </c>
       <c r="G218" t="n">
-        <v>0.009623976961513901</v>
+        <v>0.009632423066256701</v>
       </c>
       <c r="H218" t="n">
         <v>0.187051602563337</v>
       </c>
       <c r="I218" t="n">
-        <v>0.01689</v>
+        <v>0.01692</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>0.0057</v>
+        <v>0.00574</v>
       </c>
       <c r="M218" t="n">
         <v>0.01077</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01433</v>
+        <v>0.01437</v>
       </c>
       <c r="O218" t="n">
         <v>1789705</v>
@@ -18067,24 +18067,24 @@
         <v>0.00536</v>
       </c>
       <c r="G219" t="n">
-        <v>0.009623976961513901</v>
+        <v>0.009632423066256701</v>
       </c>
       <c r="H219" t="n">
         <v>0.187051602563337</v>
       </c>
       <c r="I219" t="n">
-        <v>0.01689</v>
+        <v>0.01692</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
-        <v>0.0057</v>
+        <v>0.00574</v>
       </c>
       <c r="M219" t="n">
         <v>0.01077</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01433</v>
+        <v>0.01437</v>
       </c>
       <c r="O219" t="n">
         <v>1789705</v>
@@ -18148,7 +18148,7 @@
         <v>0.2149</v>
       </c>
       <c r="G220" t="n">
-        <v>0.258442311677816</v>
+        <v>0.258473938174841</v>
       </c>
       <c r="H220" t="n">
         <v>0.9593</v>
@@ -18229,7 +18229,7 @@
         <v>0.2149</v>
       </c>
       <c r="G221" t="n">
-        <v>0.258442311677816</v>
+        <v>0.258473938174841</v>
       </c>
       <c r="H221" t="n">
         <v>0.9593</v>
@@ -18309,7 +18309,7 @@
         <v>0.271881355932203</v>
       </c>
       <c r="H222" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I222" t="n">
         <v>0.71775</v>
@@ -18320,10 +18320,10 @@
         <v>0.09950000000000001</v>
       </c>
       <c r="M222" t="n">
-        <v>0.46941</v>
+        <v>0.46962</v>
       </c>
       <c r="N222" t="n">
-        <v>0.67454</v>
+        <v>0.67465</v>
       </c>
       <c r="O222" t="n">
         <v>1789705</v>
@@ -18386,7 +18386,7 @@
         <v>0.271881355932203</v>
       </c>
       <c r="H223" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I223" t="n">
         <v>0.71775</v>
@@ -18397,10 +18397,10 @@
         <v>0.09950000000000001</v>
       </c>
       <c r="M223" t="n">
-        <v>0.46941</v>
+        <v>0.46962</v>
       </c>
       <c r="N223" t="n">
-        <v>0.67454</v>
+        <v>0.67465</v>
       </c>
       <c r="O223" t="n">
         <v>1789705</v>
@@ -18849,10 +18849,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="G229" t="n">
-        <v>1.0392378678414</v>
+        <v>1.04015093621066</v>
       </c>
       <c r="H229" t="n">
-        <v>3.02129144626197</v>
+        <v>3.06939095316843</v>
       </c>
       <c r="I229" t="n">
         <v>2.5</v>
@@ -18930,7 +18930,7 @@
         <v>0.01</v>
       </c>
       <c r="G230" t="n">
-        <v>0.01179098951028</v>
+        <v>0.011795208246702</v>
       </c>
       <c r="H230" t="n">
         <v>0.045</v>
@@ -19011,7 +19011,7 @@
         <v>0.01</v>
       </c>
       <c r="G231" t="n">
-        <v>0.01179098951028</v>
+        <v>0.011795208246702</v>
       </c>
       <c r="H231" t="n">
         <v>0.045</v>
@@ -19509,7 +19509,7 @@
         <v>0.00505</v>
       </c>
       <c r="G237" t="n">
-        <v>0.009387135555971799</v>
+        <v>0.009390566352193401</v>
       </c>
       <c r="H237" t="n">
         <v>0.187051602563337</v>
@@ -19590,7 +19590,7 @@
         <v>0.00505</v>
       </c>
       <c r="G238" t="n">
-        <v>0.009387135555971799</v>
+        <v>0.009390566352193401</v>
       </c>
       <c r="H238" t="n">
         <v>0.187051602563337</v>
@@ -19671,7 +19671,7 @@
         <v>0.187</v>
       </c>
       <c r="G239" t="n">
-        <v>0.244975818173101</v>
+        <v>0.245002084246901</v>
       </c>
       <c r="H239" t="n">
         <v>0.9593</v>
@@ -19752,7 +19752,7 @@
         <v>0.187</v>
       </c>
       <c r="G240" t="n">
-        <v>0.244975818173101</v>
+        <v>0.245002084246901</v>
       </c>
       <c r="H240" t="n">
         <v>0.9593</v>
@@ -19906,13 +19906,13 @@
         <v>0.203</v>
       </c>
       <c r="G242" t="n">
-        <v>0.257254237288136</v>
+        <v>0.257277966101695</v>
       </c>
       <c r="H242" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I242" t="n">
-        <v>0.6416500000000001</v>
+        <v>0.6418700000000001</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
@@ -19983,13 +19983,13 @@
         <v>0.203</v>
       </c>
       <c r="G243" t="n">
-        <v>0.257254237288136</v>
+        <v>0.257277966101695</v>
       </c>
       <c r="H243" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I243" t="n">
-        <v>0.6416500000000001</v>
+        <v>0.6418700000000001</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
@@ -20449,10 +20449,10 @@
         <v>0.9</v>
       </c>
       <c r="G249" t="n">
-        <v>1.04202004086605</v>
+        <v>1.04291368224873</v>
       </c>
       <c r="H249" t="n">
-        <v>3.02129144626197</v>
+        <v>3.06939095316843</v>
       </c>
       <c r="I249" t="n">
         <v>2.5</v>
@@ -20530,7 +20530,7 @@
         <v>0.0105</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0128384979053321</v>
+        <v>0.0128417836899597</v>
       </c>
       <c r="H250" t="n">
         <v>0.045</v>
@@ -20611,7 +20611,7 @@
         <v>0.0105</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0128384979053321</v>
+        <v>0.0128417836899597</v>
       </c>
       <c r="H251" t="n">
         <v>0.045</v>
@@ -21109,7 +21109,7 @@
         <v>0.00416</v>
       </c>
       <c r="G257" t="n">
-        <v>0.0098674085193571</v>
+        <v>0.0098724311715377</v>
       </c>
       <c r="H257" t="n">
         <v>0.187051602563337</v>
@@ -21120,7 +21120,7 @@
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
-        <v>0.00359</v>
+        <v>0.00362</v>
       </c>
       <c r="M257" t="n">
         <v>0.01131</v>
@@ -21190,7 +21190,7 @@
         <v>0.00416</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0098674085193571</v>
+        <v>0.0098724311715377</v>
       </c>
       <c r="H258" t="n">
         <v>0.187051602563337</v>
@@ -21201,7 +21201,7 @@
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
-        <v>0.00359</v>
+        <v>0.00362</v>
       </c>
       <c r="M258" t="n">
         <v>0.01131</v>
@@ -21271,7 +21271,7 @@
         <v>0.1885</v>
       </c>
       <c r="G259" t="n">
-        <v>0.243339292296566</v>
+        <v>0.243371091446106</v>
       </c>
       <c r="H259" t="n">
         <v>0.9593</v>
@@ -21282,7 +21282,7 @@
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
-        <v>0.02202</v>
+        <v>0.02238</v>
       </c>
       <c r="M259" t="n">
         <v>0.42063</v>
@@ -21352,7 +21352,7 @@
         <v>0.1885</v>
       </c>
       <c r="G260" t="n">
-        <v>0.243339292296566</v>
+        <v>0.243371091446106</v>
       </c>
       <c r="H260" t="n">
         <v>0.9593</v>
@@ -21363,7 +21363,7 @@
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
-        <v>0.02202</v>
+        <v>0.02238</v>
       </c>
       <c r="M260" t="n">
         <v>0.42063</v>
@@ -21506,10 +21506,10 @@
         <v>0.2045</v>
       </c>
       <c r="G262" t="n">
-        <v>0.256079634065276</v>
+        <v>0.256125956665218</v>
       </c>
       <c r="H262" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I262" t="n">
         <v>0.634</v>
@@ -21523,7 +21523,7 @@
         <v>0.4394</v>
       </c>
       <c r="N262" t="n">
-        <v>0.5421</v>
+        <v>0.54231</v>
       </c>
       <c r="O262" t="n">
         <v>1789705</v>
@@ -21583,10 +21583,10 @@
         <v>0.2045</v>
       </c>
       <c r="G263" t="n">
-        <v>0.256079634065276</v>
+        <v>0.256125956665218</v>
       </c>
       <c r="H263" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I263" t="n">
         <v>0.634</v>
@@ -21600,7 +21600,7 @@
         <v>0.4394</v>
       </c>
       <c r="N263" t="n">
-        <v>0.5421</v>
+        <v>0.54231</v>
       </c>
       <c r="O263" t="n">
         <v>1789705</v>
@@ -22049,10 +22049,10 @@
         <v>0.85</v>
       </c>
       <c r="G269" t="n">
-        <v>0.966558221840953</v>
+        <v>0.967480887753143</v>
       </c>
       <c r="H269" t="n">
-        <v>3.02129144626197</v>
+        <v>3.06939095316843</v>
       </c>
       <c r="I269" t="n">
         <v>2.5</v>
@@ -22130,7 +22130,7 @@
         <v>0.013</v>
       </c>
       <c r="G270" t="n">
-        <v>0.0296051645719988</v>
+        <v>0.0296084503566264</v>
       </c>
       <c r="H270" t="n">
         <v>0.926</v>
@@ -22211,7 +22211,7 @@
         <v>0.013</v>
       </c>
       <c r="G271" t="n">
-        <v>0.0296051645719988</v>
+        <v>0.0296084503566264</v>
       </c>
       <c r="H271" t="n">
         <v>0.926</v>
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>0.00274</v>
+        <v>0.00278</v>
       </c>
       <c r="G277" t="n">
-        <v>0.0060113926198687</v>
+        <v>0.0060234868632114</v>
       </c>
       <c r="H277" t="n">
         <v>0.0559784772179109</v>
@@ -22720,10 +22720,10 @@
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
-        <v>0.00273</v>
+        <v>0.00277</v>
       </c>
       <c r="M277" t="n">
-        <v>0.01055</v>
+        <v>0.01063</v>
       </c>
       <c r="N277" t="n">
         <v>0.01421</v>
@@ -22787,10 +22787,10 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0.00274</v>
+        <v>0.00278</v>
       </c>
       <c r="G278" t="n">
-        <v>0.0060113926198687</v>
+        <v>0.0060234868632114</v>
       </c>
       <c r="H278" t="n">
         <v>0.0559784772179109</v>
@@ -22801,10 +22801,10 @@
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
-        <v>0.00273</v>
+        <v>0.00277</v>
       </c>
       <c r="M278" t="n">
-        <v>0.01055</v>
+        <v>0.01063</v>
       </c>
       <c r="N278" t="n">
         <v>0.01421</v>
@@ -22871,7 +22871,7 @@
         <v>0.1885</v>
       </c>
       <c r="G279" t="n">
-        <v>0.251855958963233</v>
+        <v>0.251887758112773</v>
       </c>
       <c r="H279" t="n">
         <v>0.9593</v>
@@ -22952,7 +22952,7 @@
         <v>0.1885</v>
       </c>
       <c r="G280" t="n">
-        <v>0.251855958963233</v>
+        <v>0.251887758112773</v>
       </c>
       <c r="H280" t="n">
         <v>0.9593</v>
@@ -23106,10 +23106,10 @@
         <v>0.2045</v>
       </c>
       <c r="G282" t="n">
-        <v>0.263562967398609</v>
+        <v>0.263609289998551</v>
       </c>
       <c r="H282" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I282" t="n">
         <v>0.698</v>
@@ -23120,10 +23120,10 @@
         <v>0.036</v>
       </c>
       <c r="M282" t="n">
-        <v>0.4704</v>
+        <v>0.47068</v>
       </c>
       <c r="N282" t="n">
-        <v>0.6284</v>
+        <v>0.62849</v>
       </c>
       <c r="O282" t="n">
         <v>1789705</v>
@@ -23183,10 +23183,10 @@
         <v>0.2045</v>
       </c>
       <c r="G283" t="n">
-        <v>0.263562967398609</v>
+        <v>0.263609289998551</v>
       </c>
       <c r="H283" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I283" t="n">
         <v>0.698</v>
@@ -23197,10 +23197,10 @@
         <v>0.036</v>
       </c>
       <c r="M283" t="n">
-        <v>0.4704</v>
+        <v>0.47068</v>
       </c>
       <c r="N283" t="n">
-        <v>0.6284</v>
+        <v>0.62849</v>
       </c>
       <c r="O283" t="n">
         <v>1789705</v>
@@ -23649,10 +23649,10 @@
         <v>0.9</v>
       </c>
       <c r="G289" t="n">
-        <v>0.942285217018324</v>
+        <v>0.943187824975901</v>
       </c>
       <c r="H289" t="n">
-        <v>3.02129144626197</v>
+        <v>3.06939095316843</v>
       </c>
       <c r="I289" t="n">
         <v>2.5</v>
@@ -23730,7 +23730,7 @@
         <v>0.016</v>
       </c>
       <c r="G290" t="n">
-        <v>0.0320512672325037</v>
+        <v>0.0320520595587818</v>
       </c>
       <c r="H290" t="n">
         <v>0.926</v>
@@ -23811,7 +23811,7 @@
         <v>0.016</v>
       </c>
       <c r="G291" t="n">
-        <v>0.0320512672325037</v>
+        <v>0.0320520595587818</v>
       </c>
       <c r="H291" t="n">
         <v>0.926</v>
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0.00274</v>
+        <v>0.00278</v>
       </c>
       <c r="G297" t="n">
-        <v>0.0047891373957185</v>
+        <v>0.0048062228708193</v>
       </c>
       <c r="H297" t="n">
         <v>0.0559784772179109</v>
@@ -24320,7 +24320,7 @@
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
-        <v>0.00273</v>
+        <v>0.00277</v>
       </c>
       <c r="M297" t="n">
         <v>0.00683</v>
@@ -24387,10 +24387,10 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0.00274</v>
+        <v>0.00278</v>
       </c>
       <c r="G298" t="n">
-        <v>0.0047891373957185</v>
+        <v>0.0048062228708193</v>
       </c>
       <c r="H298" t="n">
         <v>0.0559784772179109</v>
@@ -24401,7 +24401,7 @@
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
-        <v>0.00273</v>
+        <v>0.00277</v>
       </c>
       <c r="M298" t="n">
         <v>0.00683</v>
@@ -24471,7 +24471,7 @@
         <v>0.19785</v>
       </c>
       <c r="G299" t="n">
-        <v>0.262555958963233</v>
+        <v>0.262587758112773</v>
       </c>
       <c r="H299" t="n">
         <v>0.9593</v>
@@ -24552,7 +24552,7 @@
         <v>0.19785</v>
       </c>
       <c r="G300" t="n">
-        <v>0.262555958963233</v>
+        <v>0.262587758112773</v>
       </c>
       <c r="H300" t="n">
         <v>0.9593</v>
@@ -24703,13 +24703,13 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0.2115</v>
+        <v>0.2116</v>
       </c>
       <c r="G302" t="n">
-        <v>0.273412967398609</v>
+        <v>0.273459289998551</v>
       </c>
       <c r="H302" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I302" t="n">
         <v>0.6775</v>
@@ -24720,7 +24720,7 @@
         <v>0.036</v>
       </c>
       <c r="M302" t="n">
-        <v>0.5024</v>
+        <v>0.5025500000000001</v>
       </c>
       <c r="N302" t="n">
         <v>0.6125</v>
@@ -24780,13 +24780,13 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0.2115</v>
+        <v>0.2116</v>
       </c>
       <c r="G303" t="n">
-        <v>0.273412967398609</v>
+        <v>0.273459289998551</v>
       </c>
       <c r="H303" t="n">
-        <v>0.965</v>
+        <v>0.9648</v>
       </c>
       <c r="I303" t="n">
         <v>0.6775</v>
@@ -24797,7 +24797,7 @@
         <v>0.036</v>
       </c>
       <c r="M303" t="n">
-        <v>0.5024</v>
+        <v>0.5025500000000001</v>
       </c>
       <c r="N303" t="n">
         <v>0.6125</v>
@@ -25249,10 +25249,10 @@
         <v>0.9</v>
       </c>
       <c r="G309" t="n">
-        <v>0.866479250139423</v>
+        <v>0.8671739030276781</v>
       </c>
       <c r="H309" t="n">
-        <v>3.02129144626197</v>
+        <v>3.06939095316843</v>
       </c>
       <c r="I309" t="n">
         <v>2.5</v>
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0.00293</v>
+        <v>0.00295</v>
       </c>
       <c r="G317" t="n">
-        <v>0.0051480136919116</v>
+        <v>0.0051672845022328</v>
       </c>
       <c r="H317" t="n">
         <v>0.0559784772179109</v>
@@ -25920,7 +25920,7 @@
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
-        <v>0.00303</v>
+        <v>0.00307</v>
       </c>
       <c r="M317" t="n">
         <v>0.00769</v>
@@ -25987,10 +25987,10 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0.00293</v>
+        <v>0.00295</v>
       </c>
       <c r="G318" t="n">
-        <v>0.0051480136919116</v>
+        <v>0.0051672845022328</v>
       </c>
       <c r="H318" t="n">
         <v>0.0559784772179109</v>
@@ -26001,7 +26001,7 @@
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
-        <v>0.00303</v>
+        <v>0.00307</v>
       </c>
       <c r="M318" t="n">
         <v>0.00769</v>
@@ -26071,7 +26071,7 @@
         <v>0.2293</v>
       </c>
       <c r="G319" t="n">
-        <v>0.279284292296566</v>
+        <v>0.279316091446106</v>
       </c>
       <c r="H319" t="n">
         <v>0.66</v>
@@ -26152,7 +26152,7 @@
         <v>0.2293</v>
       </c>
       <c r="G320" t="n">
-        <v>0.279284292296566</v>
+        <v>0.279316091446106</v>
       </c>
       <c r="H320" t="n">
         <v>0.66</v>
@@ -26303,10 +26303,10 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0.2375</v>
+        <v>0.23755</v>
       </c>
       <c r="G322" t="n">
-        <v>0.290629634065276</v>
+        <v>0.290650956665218</v>
       </c>
       <c r="H322" t="n">
         <v>0.6899999999999999</v>
@@ -26317,10 +26317,10 @@
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
-        <v>0.1085</v>
+        <v>0.10835</v>
       </c>
       <c r="M322" t="n">
-        <v>0.5409</v>
+        <v>0.54099</v>
       </c>
       <c r="N322" t="n">
         <v>0.617</v>
@@ -26380,10 +26380,10 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0.2375</v>
+        <v>0.23755</v>
       </c>
       <c r="G323" t="n">
-        <v>0.290629634065276</v>
+        <v>0.290650956665218</v>
       </c>
       <c r="H323" t="n">
         <v>0.6899999999999999</v>
@@ -26394,10 +26394,10 @@
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
-        <v>0.1085</v>
+        <v>0.10835</v>
       </c>
       <c r="M323" t="n">
-        <v>0.5409</v>
+        <v>0.54099</v>
       </c>
       <c r="N323" t="n">
         <v>0.617</v>
@@ -26849,7 +26849,7 @@
         <v>0.9</v>
       </c>
       <c r="G329" t="n">
-        <v>0.844001138241427</v>
+        <v>0.843639760629727</v>
       </c>
       <c r="H329" t="n">
         <v>2.5</v>
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0.00356</v>
+        <v>0.0036</v>
       </c>
       <c r="G337" t="n">
-        <v>0.0060195632780142</v>
+        <v>0.0060402300878149</v>
       </c>
       <c r="H337" t="n">
         <v>0.0559784772179109</v>
@@ -27520,10 +27520,10 @@
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
-        <v>0.00344</v>
+        <v>0.00347</v>
       </c>
       <c r="M337" t="n">
-        <v>0.00979</v>
+        <v>0.00983</v>
       </c>
       <c r="N337" t="n">
         <v>0.01219</v>
@@ -27587,10 +27587,10 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0.00356</v>
+        <v>0.0036</v>
       </c>
       <c r="G338" t="n">
-        <v>0.0060195632780142</v>
+        <v>0.0060402300878149</v>
       </c>
       <c r="H338" t="n">
         <v>0.0559784772179109</v>
@@ -27601,10 +27601,10 @@
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
-        <v>0.00344</v>
+        <v>0.00347</v>
       </c>
       <c r="M338" t="n">
-        <v>0.00979</v>
+        <v>0.00983</v>
       </c>
       <c r="N338" t="n">
         <v>0.01219</v>
@@ -27671,7 +27671,7 @@
         <v>0.2293</v>
       </c>
       <c r="G339" t="n">
-        <v>0.288135958963233</v>
+        <v>0.288167758112773</v>
       </c>
       <c r="H339" t="n">
         <v>0.66</v>
@@ -27752,7 +27752,7 @@
         <v>0.2293</v>
       </c>
       <c r="G340" t="n">
-        <v>0.288135958963233</v>
+        <v>0.288167758112773</v>
       </c>
       <c r="H340" t="n">
         <v>0.66</v>
@@ -27903,10 +27903,10 @@
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0.2375</v>
+        <v>0.23755</v>
       </c>
       <c r="G342" t="n">
-        <v>0.301179634065276</v>
+        <v>0.301202623331885</v>
       </c>
       <c r="H342" t="n">
         <v>0.6899999999999999</v>
@@ -27917,7 +27917,7 @@
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
-        <v>0.1085</v>
+        <v>0.10835</v>
       </c>
       <c r="M342" t="n">
         <v>0.5645</v>
@@ -27980,10 +27980,10 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0.2375</v>
+        <v>0.23755</v>
       </c>
       <c r="G343" t="n">
-        <v>0.301179634065276</v>
+        <v>0.301202623331885</v>
       </c>
       <c r="H343" t="n">
         <v>0.6899999999999999</v>
@@ -27994,7 +27994,7 @@
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
-        <v>0.1085</v>
+        <v>0.10835</v>
       </c>
       <c r="M343" t="n">
         <v>0.5645</v>
@@ -28449,7 +28449,7 @@
         <v>0.9</v>
       </c>
       <c r="G349" t="n">
-        <v>0.819763426849386</v>
+        <v>0.819287714788263</v>
       </c>
       <c r="H349" t="n">
         <v>2</v>
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>0.00393</v>
+        <v>0.00396</v>
       </c>
       <c r="G357" t="n">
-        <v>0.0056234833763711</v>
+        <v>0.0056439758410477</v>
       </c>
       <c r="H357" t="n">
         <v>0.0183347974629858</v>
@@ -29120,7 +29120,7 @@
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
-        <v>0.00393</v>
+        <v>0.00396</v>
       </c>
       <c r="M357" t="n">
         <v>0.00959</v>
@@ -29187,10 +29187,10 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>0.00393</v>
+        <v>0.00396</v>
       </c>
       <c r="G358" t="n">
-        <v>0.0056234833763711</v>
+        <v>0.0056439758410477</v>
       </c>
       <c r="H358" t="n">
         <v>0.0183347974629858</v>
@@ -29201,7 +29201,7 @@
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
-        <v>0.00393</v>
+        <v>0.00396</v>
       </c>
       <c r="M358" t="n">
         <v>0.00959</v>
@@ -29506,7 +29506,7 @@
         <v>0.235</v>
       </c>
       <c r="G362" t="n">
-        <v>0.309101694915254</v>
+        <v>0.309110169491525</v>
       </c>
       <c r="H362" t="n">
         <v>0.6899999999999999</v>
@@ -29583,7 +29583,7 @@
         <v>0.235</v>
       </c>
       <c r="G363" t="n">
-        <v>0.309101694915254</v>
+        <v>0.309110169491525</v>
       </c>
       <c r="H363" t="n">
         <v>0.6899999999999999</v>
@@ -30049,7 +30049,7 @@
         <v>0.95</v>
       </c>
       <c r="G369" t="n">
-        <v>0.945563565410933</v>
+        <v>0.945209495641517</v>
       </c>
       <c r="H369" t="n">
         <v>2.2</v>
@@ -30292,7 +30292,7 @@
         <v>140</v>
       </c>
       <c r="G372" t="n">
-        <v>316.036161824538</v>
+        <v>316.037037891108</v>
       </c>
       <c r="H372" t="n">
         <v>3900</v>
@@ -30377,7 +30377,7 @@
         <v>140</v>
       </c>
       <c r="G373" t="n">
-        <v>316.036161824538</v>
+        <v>316.037037891108</v>
       </c>
       <c r="H373" t="n">
         <v>3900</v>
@@ -30462,7 +30462,7 @@
         <v>140</v>
       </c>
       <c r="G374" t="n">
-        <v>316.036161824538</v>
+        <v>316.037037891108</v>
       </c>
       <c r="H374" t="n">
         <v>3900</v>
@@ -30547,7 +30547,7 @@
         <v>140</v>
       </c>
       <c r="G375" t="n">
-        <v>316.036161824538</v>
+        <v>316.037037891108</v>
       </c>
       <c r="H375" t="n">
         <v>3900</v>
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>0.00435</v>
+        <v>0.00436</v>
       </c>
       <c r="G377" t="n">
-        <v>0.0056621220839879</v>
+        <v>0.0056724823880556</v>
       </c>
       <c r="H377" t="n">
         <v>0.0183347974629858</v>
@@ -30787,10 +30787,10 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>0.00435</v>
+        <v>0.00436</v>
       </c>
       <c r="G378" t="n">
-        <v>0.0056621220839879</v>
+        <v>0.0056724823880556</v>
       </c>
       <c r="H378" t="n">
         <v>0.0183347974629858</v>
@@ -31106,7 +31106,7 @@
         <v>0.235</v>
       </c>
       <c r="G382" t="n">
-        <v>0.294694915254237</v>
+        <v>0.294703389830508</v>
       </c>
       <c r="H382" t="n">
         <v>0.665</v>
@@ -31183,7 +31183,7 @@
         <v>0.235</v>
       </c>
       <c r="G383" t="n">
-        <v>0.294694915254237</v>
+        <v>0.294703389830508</v>
       </c>
       <c r="H383" t="n">
         <v>0.665</v>
@@ -31649,7 +31649,7 @@
         <v>1</v>
       </c>
       <c r="G389" t="n">
-        <v>0.9180647496855689</v>
+        <v>0.917554770644091</v>
       </c>
       <c r="H389" t="n">
         <v>2.2</v>
@@ -31892,10 +31892,10 @@
         <v>130</v>
       </c>
       <c r="G392" t="n">
-        <v>548.762948688189</v>
+        <v>514.415153836884</v>
       </c>
       <c r="H392" t="n">
-        <v>11117.3545275791</v>
+        <v>9159.47853312697</v>
       </c>
       <c r="I392" t="n">
         <v>1925</v>
@@ -31977,10 +31977,10 @@
         <v>130</v>
       </c>
       <c r="G393" t="n">
-        <v>548.762948688189</v>
+        <v>514.415153836884</v>
       </c>
       <c r="H393" t="n">
-        <v>11117.3545275791</v>
+        <v>9159.47853312697</v>
       </c>
       <c r="I393" t="n">
         <v>1925</v>
@@ -32062,10 +32062,10 @@
         <v>130</v>
       </c>
       <c r="G394" t="n">
-        <v>548.762948688189</v>
+        <v>514.415153836884</v>
       </c>
       <c r="H394" t="n">
-        <v>11117.3545275791</v>
+        <v>9159.47853312697</v>
       </c>
       <c r="I394" t="n">
         <v>1925</v>
@@ -32147,10 +32147,10 @@
         <v>130</v>
       </c>
       <c r="G395" t="n">
-        <v>548.762948688189</v>
+        <v>514.415153836884</v>
       </c>
       <c r="H395" t="n">
-        <v>11117.3545275791</v>
+        <v>9159.47853312697</v>
       </c>
       <c r="I395" t="n">
         <v>1925</v>
@@ -32309,7 +32309,7 @@
         <v>0.00596</v>
       </c>
       <c r="G397" t="n">
-        <v>0.0075629348027569</v>
+        <v>0.0075674408952078</v>
       </c>
       <c r="H397" t="n">
         <v>0.0286997085249599</v>
@@ -32390,7 +32390,7 @@
         <v>0.00596</v>
       </c>
       <c r="G398" t="n">
-        <v>0.0075629348027569</v>
+        <v>0.0075674408952078</v>
       </c>
       <c r="H398" t="n">
         <v>0.0286997085249599</v>
@@ -32706,7 +32706,7 @@
         <v>0.245</v>
       </c>
       <c r="G402" t="n">
-        <v>0.292736842105263</v>
+        <v>0.292745614035088</v>
       </c>
       <c r="H402" t="n">
         <v>0.783</v>
@@ -32783,7 +32783,7 @@
         <v>0.245</v>
       </c>
       <c r="G403" t="n">
-        <v>0.292736842105263</v>
+        <v>0.292745614035088</v>
       </c>
       <c r="H403" t="n">
         <v>0.783</v>
@@ -33142,6 +33142,1606 @@
         </is>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.4416</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>0.4455</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0.49705</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="O408" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P408" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.8833521335893429</v>
+      </c>
+      <c r="H409" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M409" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="N409" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="O409" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P409" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U409" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.0148771929824561</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.02925</v>
+      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0.02594</v>
+      </c>
+      <c r="O410" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P410" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U410" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.0148771929824561</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.02925</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0.02594</v>
+      </c>
+      <c r="O411" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P411" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>130</v>
+      </c>
+      <c r="G412" t="n">
+        <v>623.380066117585</v>
+      </c>
+      <c r="H412" t="n">
+        <v>9159.47853312697</v>
+      </c>
+      <c r="I412" t="n">
+        <v>3270</v>
+      </c>
+      <c r="J412" t="n">
+        <v>21.0526315789474</v>
+      </c>
+      <c r="K412" t="n">
+        <v>38.5964912280702</v>
+      </c>
+      <c r="L412" t="n">
+        <v>64</v>
+      </c>
+      <c r="M412" t="n">
+        <v>648.6</v>
+      </c>
+      <c r="N412" t="n">
+        <v>1594.84</v>
+      </c>
+      <c r="O412" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P412" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>130</v>
+      </c>
+      <c r="G413" t="n">
+        <v>623.380066117585</v>
+      </c>
+      <c r="H413" t="n">
+        <v>9159.47853312697</v>
+      </c>
+      <c r="I413" t="n">
+        <v>3270</v>
+      </c>
+      <c r="J413" t="n">
+        <v>21.0526315789474</v>
+      </c>
+      <c r="K413" t="n">
+        <v>38.5964912280702</v>
+      </c>
+      <c r="L413" t="n">
+        <v>64</v>
+      </c>
+      <c r="M413" t="n">
+        <v>648.6</v>
+      </c>
+      <c r="N413" t="n">
+        <v>1594.84</v>
+      </c>
+      <c r="O413" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P413" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>130</v>
+      </c>
+      <c r="G414" t="n">
+        <v>623.380066117585</v>
+      </c>
+      <c r="H414" t="n">
+        <v>9159.47853312697</v>
+      </c>
+      <c r="I414" t="n">
+        <v>3270</v>
+      </c>
+      <c r="J414" t="n">
+        <v>21.0526315789474</v>
+      </c>
+      <c r="K414" t="n">
+        <v>38.5964912280702</v>
+      </c>
+      <c r="L414" t="n">
+        <v>64</v>
+      </c>
+      <c r="M414" t="n">
+        <v>648.6</v>
+      </c>
+      <c r="N414" t="n">
+        <v>1594.84</v>
+      </c>
+      <c r="O414" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P414" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>130</v>
+      </c>
+      <c r="G415" t="n">
+        <v>623.380066117585</v>
+      </c>
+      <c r="H415" t="n">
+        <v>9159.47853312697</v>
+      </c>
+      <c r="I415" t="n">
+        <v>3270</v>
+      </c>
+      <c r="J415" t="n">
+        <v>21.0526315789474</v>
+      </c>
+      <c r="K415" t="n">
+        <v>38.5964912280702</v>
+      </c>
+      <c r="L415" t="n">
+        <v>64</v>
+      </c>
+      <c r="M415" t="n">
+        <v>648.6</v>
+      </c>
+      <c r="N415" t="n">
+        <v>1594.84</v>
+      </c>
+      <c r="O415" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P415" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F416" t="n">
+        <v>112.59</v>
+      </c>
+      <c r="G416" t="n">
+        <v>110.718</v>
+      </c>
+      <c r="H416" t="n">
+        <v>120</v>
+      </c>
+      <c r="I416" t="n">
+        <v>120</v>
+      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>110.295</v>
+      </c>
+      <c r="M416" t="n">
+        <v>118.95</v>
+      </c>
+      <c r="N416" t="n">
+        <v>120</v>
+      </c>
+      <c r="O416" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P416" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S416" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F417" t="n">
+        <v>0.00628</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.007986560831473401</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.0357931853984613</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.01963</v>
+      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0.01109</v>
+      </c>
+      <c r="N417" t="n">
+        <v>0.01768</v>
+      </c>
+      <c r="O417" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P417" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U417" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F418" t="n">
+        <v>0.00628</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.007986560831473401</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.0357931853984613</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.01963</v>
+      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0.01109</v>
+      </c>
+      <c r="N418" t="n">
+        <v>0.01768</v>
+      </c>
+      <c r="O418" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P418" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S418" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T418" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U418" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F419" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.28159649122807</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.62365</v>
+      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0.5061600000000001</v>
+      </c>
+      <c r="N419" t="n">
+        <v>0.59252</v>
+      </c>
+      <c r="O419" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P419" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S419" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U419" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.28159649122807</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.62365</v>
+      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0.5061600000000001</v>
+      </c>
+      <c r="N420" t="n">
+        <v>0.59252</v>
+      </c>
+      <c r="O420" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P420" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S420" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U420" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F421" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="G421" t="n">
+        <v>5.1742</v>
+      </c>
+      <c r="H421" t="n">
+        <v>6.297</v>
+      </c>
+      <c r="I421" t="n">
+        <v>6.297</v>
+      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>5.185</v>
+      </c>
+      <c r="M421" t="n">
+        <v>6.02295</v>
+      </c>
+      <c r="N421" t="n">
+        <v>6.297</v>
+      </c>
+      <c r="O421" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P421" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S421" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F422" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.298447368421053</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.63755</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0.51546</v>
+      </c>
+      <c r="N422" t="n">
+        <v>0.61798</v>
+      </c>
+      <c r="O422" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P422" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S422" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F423" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.298447368421053</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.63755</v>
+      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0.51546</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0.61798</v>
+      </c>
+      <c r="O423" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P423" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S423" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T423" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U423" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F424" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.458947368421053</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0.7281</v>
+      </c>
+      <c r="N424" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="O424" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P424" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U424" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F425" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.458947368421053</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0.7281</v>
+      </c>
+      <c r="N425" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="O425" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P425" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F426" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.0455438596491228</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.11585</v>
+      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0.0722</v>
+      </c>
+      <c r="N426" t="n">
+        <v>0.10464</v>
+      </c>
+      <c r="O426" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P426" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U426" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Maire</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.0455438596491228</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.11585</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0.0722</v>
+      </c>
+      <c r="N427" t="n">
+        <v>0.10464</v>
+      </c>
+      <c r="O427" t="n">
+        <v>1789705</v>
+      </c>
+      <c r="P427" t="n">
+        <v>5687325</v>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>Te Maire</t>
+        </is>
+      </c>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>Whai_3</t>
+        </is>
+      </c>
+      <c r="U427" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
+++ b/state_results/Rivers/WhanganuiatTeMaire_feb28a0ac0.xlsx
@@ -5682,7 +5682,7 @@
         <v>0.01871</v>
       </c>
       <c r="G66" t="n">
-        <v>0.023748693769987</v>
+        <v>0.0237391399355798</v>
       </c>
       <c r="H66" t="n">
         <v>0.103302916546841</v>
@@ -5763,7 +5763,7 @@
         <v>0.01871</v>
       </c>
       <c r="G67" t="n">
-        <v>0.023748693769987</v>
+        <v>0.0237391399355798</v>
       </c>
       <c r="H67" t="n">
         <v>0.103302916546841</v>
@@ -6820,7 +6820,7 @@
         <v>0.01829</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0230077417263697</v>
+        <v>0.0229983615980427</v>
       </c>
       <c r="H80" t="n">
         <v>0.103302916546841</v>
@@ -6901,7 +6901,7 @@
         <v>0.01829</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0230077417263697</v>
+        <v>0.0229983615980427</v>
       </c>
       <c r="H81" t="n">
         <v>0.103302916546841</v>
@@ -7958,7 +7958,7 @@
         <v>0.01517</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0202984567742557</v>
+        <v>0.0202890766459287</v>
       </c>
       <c r="H94" t="n">
         <v>0.103302916546841</v>
@@ -8039,7 +8039,7 @@
         <v>0.01517</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0202984567742557</v>
+        <v>0.0202890766459287</v>
       </c>
       <c r="H95" t="n">
         <v>0.103302916546841</v>
@@ -9096,7 +9096,7 @@
         <v>0.01149</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0162404742208809</v>
+        <v>0.0162309203864737</v>
       </c>
       <c r="H108" t="n">
         <v>0.103302916546841</v>
@@ -9177,7 +9177,7 @@
         <v>0.01149</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0162404742208809</v>
+        <v>0.0162309203864737</v>
       </c>
       <c r="H109" t="n">
         <v>0.103302916546841</v>
@@ -10234,7 +10234,7 @@
         <v>0.00788</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0106688754106666</v>
+        <v>0.0106589541210899</v>
       </c>
       <c r="H122" t="n">
         <v>0.0405025872904458</v>
@@ -10315,7 +10315,7 @@
         <v>0.00788</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0106688754106666</v>
+        <v>0.0106589541210899</v>
       </c>
       <c r="H123" t="n">
         <v>0.0405025872904458</v>
@@ -18849,10 +18849,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="G229" t="n">
-        <v>1.04015093621066</v>
+        <v>1.03525295220589</v>
       </c>
       <c r="H229" t="n">
-        <v>3.06939095316843</v>
+        <v>2.84408368894886</v>
       </c>
       <c r="I229" t="n">
         <v>2.5</v>
@@ -20449,10 +20449,10 @@
         <v>0.9</v>
       </c>
       <c r="G249" t="n">
-        <v>1.04291368224873</v>
+        <v>1.03811991066959</v>
       </c>
       <c r="H249" t="n">
-        <v>3.06939095316843</v>
+        <v>2.84408368894886</v>
       </c>
       <c r="I249" t="n">
         <v>2.5</v>
@@ -22049,10 +22049,10 @@
         <v>0.85</v>
       </c>
       <c r="G269" t="n">
-        <v>0.967480887753143</v>
+        <v>0.962474059659375</v>
       </c>
       <c r="H269" t="n">
-        <v>3.06939095316843</v>
+        <v>2.84408368894886</v>
       </c>
       <c r="I269" t="n">
         <v>2.5</v>
@@ -23649,10 +23649,10 @@
         <v>0.9</v>
       </c>
       <c r="G289" t="n">
-        <v>0.943187824975901</v>
+        <v>0.938289840971128</v>
       </c>
       <c r="H289" t="n">
-        <v>3.06939095316843</v>
+        <v>2.84408368894886</v>
       </c>
       <c r="I289" t="n">
         <v>2.5</v>
@@ -25249,10 +25249,10 @@
         <v>0.9</v>
       </c>
       <c r="G309" t="n">
-        <v>0.8671739030276781</v>
+        <v>0.862667757743287</v>
       </c>
       <c r="H309" t="n">
-        <v>3.06939095316843</v>
+        <v>2.84408368894886</v>
       </c>
       <c r="I309" t="n">
         <v>2.5</v>
@@ -31892,10 +31892,10 @@
         <v>130</v>
       </c>
       <c r="G392" t="n">
-        <v>514.415153836884</v>
+        <v>574.855301509219</v>
       </c>
       <c r="H392" t="n">
-        <v>9159.47853312697</v>
+        <v>12604.5669504501</v>
       </c>
       <c r="I392" t="n">
         <v>1925</v>
@@ -31977,10 +31977,10 @@
         <v>130</v>
       </c>
       <c r="G393" t="n">
-        <v>514.415153836884</v>
+        <v>574.855301509219</v>
       </c>
       <c r="H393" t="n">
-        <v>9159.47853312697</v>
+        <v>12604.5669504501</v>
       </c>
       <c r="I393" t="n">
         <v>1925</v>
@@ -32062,10 +32062,10 @@
         <v>130</v>
       </c>
       <c r="G394" t="n">
-        <v>514.415153836884</v>
+        <v>574.855301509219</v>
       </c>
       <c r="H394" t="n">
-        <v>9159.47853312697</v>
+        <v>12604.5669504501</v>
       </c>
       <c r="I394" t="n">
         <v>1925</v>
@@ -32147,10 +32147,10 @@
         <v>130</v>
       </c>
       <c r="G395" t="n">
-        <v>514.415153836884</v>
+        <v>574.855301509219</v>
       </c>
       <c r="H395" t="n">
-        <v>9159.47853312697</v>
+        <v>12604.5669504501</v>
       </c>
       <c r="I395" t="n">
         <v>1925</v>
@@ -33492,10 +33492,10 @@
         <v>130</v>
       </c>
       <c r="G412" t="n">
-        <v>623.380066117585</v>
+        <v>683.820213789921</v>
       </c>
       <c r="H412" t="n">
-        <v>9159.47853312697</v>
+        <v>12604.5669504501</v>
       </c>
       <c r="I412" t="n">
         <v>3270</v>
@@ -33577,10 +33577,10 @@
         <v>130</v>
       </c>
       <c r="G413" t="n">
-        <v>623.380066117585</v>
+        <v>683.820213789921</v>
       </c>
       <c r="H413" t="n">
-        <v>9159.47853312697</v>
+        <v>12604.5669504501</v>
       </c>
       <c r="I413" t="n">
         <v>3270</v>
@@ -33662,10 +33662,10 @@
         <v>130</v>
       </c>
       <c r="G414" t="n">
-        <v>623.380066117585</v>
+        <v>683.820213789921</v>
       </c>
       <c r="H414" t="n">
-        <v>9159.47853312697</v>
+        <v>12604.5669504501</v>
       </c>
       <c r="I414" t="n">
         <v>3270</v>
@@ -33747,10 +33747,10 @@
         <v>130</v>
       </c>
       <c r="G415" t="n">
-        <v>623.380066117585</v>
+        <v>683.820213789921</v>
       </c>
       <c r="H415" t="n">
-        <v>9159.47853312697</v>
+        <v>12604.5669504501</v>
       </c>
       <c r="I415" t="n">
         <v>3270</v>
